--- a/target/classes/teachers.xlsx
+++ b/target/classes/teachers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5500" yWindow="9640" windowWidth="28800" windowHeight="15320" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>班号</t>
     <rPh sb="0" eb="1">
@@ -53,20 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>马老师</t>
-    <rPh sb="0" eb="1">
-      <t>ma lao s</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘老师</t>
-    <rPh sb="0" eb="1">
-      <t>liu lao s</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>权限</t>
     <rPh sb="0" eb="1">
       <t>quan xian</t>
@@ -75,6 +61,79 @@
   </si>
   <si>
     <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试老师</t>
+    <rPh sb="0" eb="1">
+      <t>ce s</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lao s</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马立香老师</t>
+    <rPh sb="0" eb="1">
+      <t>ma li xiang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘强老师</t>
+    <rPh sb="0" eb="1">
+      <t>liu qiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李龙江老师</t>
+    <rPh sb="0" eb="1">
+      <t>li long jiang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lao s</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛玉明老师</t>
+    <rPh sb="0" eb="1">
+      <t>mao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yu ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨宁老师</t>
+    <rPh sb="0" eb="1">
+      <t>yang ning</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lao s</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭雪松老师</t>
+    <rPh sb="0" eb="1">
+      <t>tan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>song</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -417,7 +476,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -425,27 +484,97 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1001</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B4">
+        <v>201</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>202</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>301</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>302</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>127</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
